--- a/data/trans_orig/IP07A19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A19-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7563A3B6-167F-4E0E-8EEB-3BA44C062660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0A2D45-D9D4-48B2-B5DD-AD0C36827E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F85A82F6-40D2-4A30-A306-69DEAB7DB596}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFD866F0-4CA5-47F5-B48B-CF81CF2FAB03}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
   <si>
     <t>Menores según frecuencia de que le haya gustado ir al colegio en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>20,75%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
   </si>
   <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>40,26%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
   </si>
   <si>
     <t>46,48%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,28 +136,28 @@
     <t>23,57%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -166,1414 +166,1426 @@
     <t>9,58%</t>
   </si>
   <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2015 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2392005-E821-464F-96AF-879C18763C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4197710C-276E-43DA-9B7B-7E99DDABFA7E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2349,7 +2361,7 @@
         <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2376,13 @@
         <v>47230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -2379,13 +2391,13 @@
         <v>49990</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>146</v>
@@ -2394,18 +2406,18 @@
         <v>97221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2417,13 +2429,13 @@
         <v>50716</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -2432,13 +2444,13 @@
         <v>60693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -2447,13 +2459,13 @@
         <v>111409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2480,13 @@
         <v>102989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -2483,13 +2495,13 @@
         <v>93778</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>294</v>
@@ -2498,13 +2510,13 @@
         <v>196767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2531,13 @@
         <v>63512</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>55</v>
@@ -2534,13 +2546,13 @@
         <v>36874</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -2549,13 +2561,13 @@
         <v>100386</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2582,13 @@
         <v>12975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2585,13 +2597,13 @@
         <v>5240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -2600,13 +2612,13 @@
         <v>18215</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2633,13 @@
         <v>6589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -2636,13 +2648,13 @@
         <v>6739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2651,13 +2663,13 @@
         <v>13329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2684,13 @@
         <v>236781</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>304</v>
@@ -2687,13 +2699,13 @@
         <v>203324</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>661</v>
@@ -2702,18 +2714,18 @@
         <v>440105</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2725,13 +2737,13 @@
         <v>14347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -2740,13 +2752,13 @@
         <v>20885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -2755,13 +2767,13 @@
         <v>35231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2788,13 @@
         <v>30601</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -2791,13 +2803,13 @@
         <v>34557</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -2806,13 +2818,13 @@
         <v>65158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2839,13 @@
         <v>8582</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -2842,13 +2854,13 @@
         <v>8456</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2857,13 +2869,13 @@
         <v>17038</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2890,13 @@
         <v>4115</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2893,13 +2905,13 @@
         <v>1526</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -2908,13 +2920,13 @@
         <v>5642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2941,13 @@
         <v>1948</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2944,13 +2956,13 @@
         <v>1429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2959,13 +2971,13 @@
         <v>3377</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2992,13 @@
         <v>59592</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -2995,13 +3007,13 @@
         <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>184</v>
@@ -3010,13 +3022,13 @@
         <v>126446</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3045,13 @@
         <v>74863</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>144</v>
@@ -3048,13 +3060,13 @@
         <v>97185</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>256</v>
@@ -3063,13 +3075,13 @@
         <v>172048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3096,13 @@
         <v>152606</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -3099,13 +3111,13 @@
         <v>151568</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>453</v>
@@ -3114,13 +3126,13 @@
         <v>304175</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3147,13 @@
         <v>83228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>74</v>
@@ -3150,13 +3162,13 @@
         <v>49733</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>201</v>
@@ -3165,13 +3177,13 @@
         <v>132960</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3198,13 @@
         <v>21615</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3201,13 +3213,13 @@
         <v>9438</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3216,13 +3228,13 @@
         <v>31052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3249,13 @@
         <v>11292</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3252,13 +3264,13 @@
         <v>12244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -3267,13 +3279,13 @@
         <v>23536</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3300,13 @@
         <v>343604</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -3303,13 +3315,13 @@
         <v>320168</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>991</v>
@@ -3318,18 +3330,18 @@
         <v>663772</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDDD98C-F12A-41D8-A599-DD7B13240978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1DA420-2FEE-4C1A-BF32-A3CBCFE06674}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3472,13 +3484,13 @@
         <v>19440</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3487,13 +3499,13 @@
         <v>27730</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -3502,13 +3514,13 @@
         <v>47170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3535,13 @@
         <v>17631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -3538,13 +3550,13 @@
         <v>16260</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3553,13 +3565,13 @@
         <v>33890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3586,13 @@
         <v>4715</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3589,13 +3601,13 @@
         <v>5134</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3604,13 +3616,13 @@
         <v>9849</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3637,13 @@
         <v>1917</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3640,13 +3652,13 @@
         <v>1359</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3655,13 +3667,13 @@
         <v>3276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3688,13 @@
         <v>2150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3691,13 +3703,13 @@
         <v>1991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3706,13 +3718,13 @@
         <v>4141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3739,13 @@
         <v>45853</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -3742,13 +3754,13 @@
         <v>52474</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>139</v>
@@ -3757,18 +3769,18 @@
         <v>98326</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3780,13 +3792,13 @@
         <v>77972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -3795,13 +3807,13 @@
         <v>74542</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -3810,13 +3822,13 @@
         <v>152514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3843,13 @@
         <v>88510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -3846,13 +3858,13 @@
         <v>88504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>256</v>
@@ -3861,13 +3873,13 @@
         <v>177014</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3894,13 @@
         <v>38269</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -3897,13 +3909,13 @@
         <v>30095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -3912,13 +3924,13 @@
         <v>68363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,10 +3945,10 @@
         <v>15822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>267</v>
@@ -3948,10 +3960,10 @@
         <v>8322</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>269</v>
@@ -3999,13 +4011,13 @@
         <v>3955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4035,13 +4047,13 @@
         <v>228723</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>294</v>
@@ -4050,13 +4062,13 @@
         <v>205418</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>628</v>
@@ -4065,18 +4077,18 @@
         <v>434141</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4091,10 +4103,10 @@
         <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4103,13 +4115,13 @@
         <v>32257</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4118,13 +4130,13 @@
         <v>53710</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4151,13 @@
         <v>24723</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4154,13 +4166,13 @@
         <v>21718</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -4169,13 +4181,13 @@
         <v>46441</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4202,13 @@
         <v>6784</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -4205,13 +4217,13 @@
         <v>7313</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -4220,13 +4232,13 @@
         <v>14097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4253,13 @@
         <v>4393</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4256,13 +4268,13 @@
         <v>1415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4271,13 +4283,13 @@
         <v>5808</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4304,13 @@
         <v>580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4307,13 +4319,13 @@
         <v>715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4322,13 +4334,13 @@
         <v>1295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4355,13 @@
         <v>57933</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -4358,13 +4370,13 @@
         <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>173</v>
@@ -4373,13 +4385,13 @@
         <v>121351</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4408,13 @@
         <v>118864</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -4411,13 +4423,13 @@
         <v>134529</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -4426,13 +4438,13 @@
         <v>253394</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4459,13 @@
         <v>130863</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -4462,13 +4474,13 @@
         <v>126482</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>369</v>
@@ -4477,13 +4489,13 @@
         <v>257345</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4510,13 @@
         <v>49768</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -4513,13 +4525,13 @@
         <v>42542</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>132</v>
@@ -4528,13 +4540,13 @@
         <v>92310</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4561,13 @@
         <v>22131</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4564,13 +4576,13 @@
         <v>11097</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -4579,13 +4591,13 @@
         <v>33228</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4612,13 @@
         <v>10881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -4615,13 +4627,13 @@
         <v>6660</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -4630,13 +4642,13 @@
         <v>17542</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4663,13 @@
         <v>332508</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>456</v>
@@ -4666,13 +4678,13 @@
         <v>321310</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>940</v>
@@ -4681,18 +4693,18 @@
         <v>653818</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA58EB-5630-4AD8-BB40-A1CF43849F07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66566791-5DA0-4F97-AFB6-3628A03F4E74}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4728,7 +4740,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4835,13 +4847,13 @@
         <v>13060</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4850,13 +4862,13 @@
         <v>10305</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -4865,13 +4877,13 @@
         <v>23366</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4898,13 @@
         <v>16507</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -4901,13 +4913,13 @@
         <v>15453</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4916,13 +4928,13 @@
         <v>31960</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4949,13 @@
         <v>3432</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4952,13 +4964,13 @@
         <v>4468</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -4967,13 +4979,13 @@
         <v>7900</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5000,13 @@
         <v>2912</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5003,13 +5015,13 @@
         <v>931</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5018,13 +5030,13 @@
         <v>3844</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5051,13 @@
         <v>727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5054,13 +5066,13 @@
         <v>657</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -5069,13 +5081,13 @@
         <v>1384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>397</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5102,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -5105,13 +5117,13 @@
         <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -5120,18 +5132,18 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5143,13 +5155,13 @@
         <v>84733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -5158,13 +5170,13 @@
         <v>106241</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>270</v>
@@ -5173,13 +5185,13 @@
         <v>190974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5206,13 @@
         <v>90517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -5209,13 +5221,13 @@
         <v>90429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
@@ -5224,13 +5236,13 @@
         <v>180946</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5257,13 @@
         <v>51459</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -5260,13 +5272,13 @@
         <v>41473</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -5275,13 +5287,13 @@
         <v>92932</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5308,13 @@
         <v>12127</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5311,13 +5323,13 @@
         <v>6613</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5326,13 +5338,13 @@
         <v>18740</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5359,13 @@
         <v>5855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5362,13 +5374,13 @@
         <v>5003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5383,7 +5395,7 @@
         <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5410,13 @@
         <v>244690</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>359</v>
@@ -5413,13 +5425,13 @@
         <v>249760</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>693</v>
@@ -5428,18 +5440,18 @@
         <v>494450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5451,7 +5463,7 @@
         <v>31497</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>437</v>
@@ -5466,13 +5478,13 @@
         <v>32605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -5481,13 +5493,13 @@
         <v>64103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5514,13 @@
         <v>31822</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -5517,13 +5529,13 @@
         <v>26060</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -5532,13 +5544,13 @@
         <v>57882</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5565,13 @@
         <v>11937</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5568,13 +5580,13 @@
         <v>9259</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5583,13 +5595,13 @@
         <v>21197</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5616,13 @@
         <v>2104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -5619,13 +5631,13 @@
         <v>5702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -5634,13 +5646,13 @@
         <v>7806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5667,13 @@
         <v>700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5670,13 +5682,13 @@
         <v>772</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5685,13 +5697,13 @@
         <v>1472</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5718,13 @@
         <v>78061</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -5721,13 +5733,13 @@
         <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -5736,13 +5748,13 @@
         <v>152459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5771,13 @@
         <v>129291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>476</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
         <v>214</v>
@@ -5774,13 +5786,13 @@
         <v>149151</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>390</v>
@@ -5789,13 +5801,13 @@
         <v>278442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5822,13 @@
         <v>138845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -5825,13 +5837,13 @@
         <v>131942</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>378</v>
@@ -5840,13 +5852,13 @@
         <v>270788</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5873,13 @@
         <v>66828</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>80</v>
@@ -5876,13 +5888,13 @@
         <v>55201</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>173</v>
@@ -5891,13 +5903,13 @@
         <v>122029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5924,13 @@
         <v>17144</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -5927,13 +5939,13 @@
         <v>13247</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>505</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>51</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -5942,13 +5954,13 @@
         <v>30390</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>42</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5975,13 @@
         <v>7282</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -5978,13 +5990,13 @@
         <v>6432</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -5993,13 +6005,13 @@
         <v>13713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6026,13 @@
         <v>359389</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -6029,13 +6041,13 @@
         <v>355972</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1002</v>
@@ -6044,18 +6056,18 @@
         <v>715362</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A19-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0A2D45-D9D4-48B2-B5DD-AD0C36827E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D899AAE-33A8-4890-B75C-D4FB08D790E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFD866F0-4CA5-47F5-B48B-CF81CF2FAB03}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{8C807EF6-B83E-4FBC-A9F9-1CA66E046E99}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
   <si>
     <t>Menores según frecuencia de que le haya gustado ir al colegio en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1519 +73,1507 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>Casi nunca</t>
   </si>
   <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
     <t>9,58%</t>
   </si>
   <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2016 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4197710C-276E-43DA-9B7B-7E99DDABFA7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B36603-043C-40B4-A17E-902FDFD2CF33}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2115,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>9800</v>
+        <v>15608</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2130,10 +2118,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>15608</v>
+        <v>9800</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2166,10 +2154,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
-        <v>19017</v>
+        <v>23233</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2181,10 +2169,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>23233</v>
+        <v>19017</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2217,10 +2205,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>11134</v>
+        <v>4403</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2232,10 +2220,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>4403</v>
+        <v>11134</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2268,10 +2256,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4525</v>
+        <v>2671</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2283,10 +2271,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>2671</v>
+        <v>4525</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2319,10 +2307,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>2755</v>
+        <v>4075</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2334,10 +2322,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>4075</v>
+        <v>2755</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2370,25 +2358,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>49990</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>49990</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2423,10 +2411,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7">
-        <v>50716</v>
+        <v>60693</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2438,10 +2426,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>60693</v>
+        <v>50716</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2474,10 +2462,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7">
-        <v>102989</v>
+        <v>93778</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -2489,10 +2477,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I11" s="7">
-        <v>93778</v>
+        <v>102989</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -2525,10 +2513,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7">
-        <v>63512</v>
+        <v>36874</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -2540,10 +2528,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="I12" s="7">
-        <v>36874</v>
+        <v>63512</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -2576,10 +2564,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>12975</v>
+        <v>5240</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -2591,10 +2579,10 @@
         <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>5240</v>
+        <v>12975</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -2612,13 +2600,13 @@
         <v>18215</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,31 +2618,31 @@
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>6589</v>
+        <v>6739</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>6739</v>
+        <v>6589</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2663,13 +2651,13 @@
         <v>13329</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,25 +2666,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>304</v>
+      </c>
+      <c r="D15" s="7">
+        <v>203324</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>357</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>236781</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>304</v>
-      </c>
-      <c r="I15" s="7">
-        <v>203324</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2725,40 +2713,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20885</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
         <v>21</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>14347</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="7">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20885</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -2767,13 +2755,13 @@
         <v>35231</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,34 +2770,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7">
+        <v>34557</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="7">
         <v>46</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>30601</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="7">
-        <v>50</v>
-      </c>
-      <c r="I17" s="7">
-        <v>34557</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -2818,13 +2806,13 @@
         <v>65158</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,31 +2824,31 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>8582</v>
+        <v>8456</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>8456</v>
+        <v>8582</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2869,13 +2857,13 @@
         <v>17038</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,34 +2872,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1526</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>4115</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1526</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -2920,13 +2908,13 @@
         <v>5642</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,34 +2923,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1429</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1948</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1429</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2971,13 +2959,13 @@
         <v>3377</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,25 +2974,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>88</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>59592</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3039,34 +3027,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>144</v>
+      </c>
+      <c r="D22" s="7">
+        <v>97185</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7">
         <v>112</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>74863</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>144</v>
-      </c>
-      <c r="I22" s="7">
-        <v>97185</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>256</v>
@@ -3075,13 +3063,13 @@
         <v>172048</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,34 +3078,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>225</v>
+      </c>
+      <c r="D23" s="7">
+        <v>151568</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="7">
         <v>228</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>152606</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="7">
-        <v>225</v>
-      </c>
-      <c r="I23" s="7">
-        <v>151568</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>453</v>
@@ -3126,13 +3114,13 @@
         <v>304175</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,34 +3129,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>49733</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="7">
         <v>127</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>83228</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="7">
-        <v>74</v>
-      </c>
-      <c r="I24" s="7">
-        <v>49733</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>201</v>
@@ -3177,13 +3165,13 @@
         <v>132960</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,34 +3180,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9438</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="7">
         <v>32</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>21615</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9438</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3228,10 +3216,10 @@
         <v>31052</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>185</v>
@@ -3243,10 +3231,10 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>11292</v>
+        <v>12244</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>186</v>
@@ -3255,22 +3243,22 @@
         <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>17</v>
+      </c>
+      <c r="I26" s="7">
+        <v>11292</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="7">
-        <v>18</v>
-      </c>
-      <c r="I26" s="7">
-        <v>12244</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -3279,13 +3267,13 @@
         <v>23536</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,25 +3282,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>475</v>
+      </c>
+      <c r="D27" s="7">
+        <v>320168</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>516</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>343604</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>475</v>
-      </c>
-      <c r="I27" s="7">
-        <v>320168</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3341,7 +3329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1DA420-2FEE-4C1A-BF32-A3CBCFE06674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9492E5BA-8BF8-4D6C-9581-655CD98AD92B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3478,34 +3466,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27730</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="7">
         <v>27</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>19440</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="7">
-        <v>40</v>
-      </c>
-      <c r="I4" s="7">
-        <v>27730</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -3514,13 +3502,13 @@
         <v>47170</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,34 +3517,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16260</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17631</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="7">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16260</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3565,13 +3553,13 @@
         <v>33890</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,31 +3571,31 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>4715</v>
+        <v>5134</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>5134</v>
+        <v>4715</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3616,13 +3604,13 @@
         <v>9849</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,34 +3619,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1359</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1917</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1359</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3667,13 +3655,13 @@
         <v>3276</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,31 +3673,31 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>2150</v>
+        <v>1991</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1991</v>
+        <v>2150</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3718,13 +3706,13 @@
         <v>4141</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,25 +3721,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7">
+        <v>52474</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>74</v>
-      </c>
-      <c r="I9" s="7">
-        <v>52474</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -3786,34 +3774,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>107</v>
+      </c>
+      <c r="D10" s="7">
+        <v>74542</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="7">
         <v>112</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>77972</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="7">
-        <v>107</v>
-      </c>
-      <c r="I10" s="7">
-        <v>74542</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -3822,13 +3810,13 @@
         <v>152514</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,34 +3825,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>126</v>
+      </c>
+      <c r="D11" s="7">
+        <v>88504</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" s="7">
         <v>130</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>88510</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H11" s="7">
-        <v>126</v>
-      </c>
-      <c r="I11" s="7">
-        <v>88504</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>256</v>
@@ -3873,13 +3861,13 @@
         <v>177014</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,34 +3876,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30095</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="7">
         <v>55</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>38269</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="7">
-        <v>43</v>
-      </c>
-      <c r="I12" s="7">
-        <v>30095</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>98</v>
@@ -3924,13 +3912,13 @@
         <v>68363</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,34 +3927,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>15822</v>
+        <v>8322</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>8322</v>
+        <v>15822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3975,13 +3963,13 @@
         <v>24144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,34 +3978,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3955</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="7">
         <v>13</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>8151</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3955</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4026,13 +4014,13 @@
         <v>12106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,25 +4029,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>294</v>
+      </c>
+      <c r="D15" s="7">
+        <v>205418</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>228723</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>294</v>
-      </c>
-      <c r="I15" s="7">
-        <v>205418</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4088,40 +4076,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <v>32257</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="7">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>21453</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32257</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4130,13 +4118,13 @@
         <v>53710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,34 +4133,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7">
+        <v>21718</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="7">
         <v>37</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>24723</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21718</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -4181,13 +4169,13 @@
         <v>46441</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4187,13 @@
         <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>6784</v>
+        <v>7313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>300</v>
@@ -4214,16 +4202,16 @@
         <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>7313</v>
+        <v>6784</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -4238,7 +4226,7 @@
         <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,34 +4235,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>4393</v>
+        <v>1415</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>307</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>1415</v>
+        <v>4393</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4283,13 +4271,13 @@
         <v>5808</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,31 +4289,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>580</v>
+        <v>715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>715</v>
+        <v>580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4334,13 +4322,13 @@
         <v>1295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,25 +4337,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4402,10 +4390,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D22" s="7">
-        <v>118864</v>
+        <v>134529</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>318</v>
@@ -4417,10 +4405,10 @@
         <v>320</v>
       </c>
       <c r="H22" s="7">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I22" s="7">
-        <v>134529</v>
+        <v>118864</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>321</v>
@@ -4453,10 +4441,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D23" s="7">
-        <v>130863</v>
+        <v>126482</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>327</v>
@@ -4468,10 +4456,10 @@
         <v>329</v>
       </c>
       <c r="H23" s="7">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="I23" s="7">
-        <v>126482</v>
+        <v>130863</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>327</v>
@@ -4492,10 +4480,10 @@
         <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,34 +4492,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7">
+        <v>42542</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="7">
         <v>72</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>49768</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H24" s="7">
-        <v>60</v>
-      </c>
-      <c r="I24" s="7">
-        <v>42542</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>132</v>
@@ -4540,13 +4528,13 @@
         <v>92310</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,34 +4543,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11097</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="7">
         <v>33</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>22131</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>11097</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -4591,13 +4579,13 @@
         <v>33228</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,34 +4594,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6660</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H26" s="7">
         <v>17</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>10881</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="H26" s="7">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6660</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -4642,13 +4630,13 @@
         <v>17542</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,25 +4645,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>456</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321310</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>332508</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>456</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321310</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4704,7 +4692,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66566791-5DA0-4F97-AFB6-3628A03F4E74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4114C9-FA9B-4011-9D02-20FFC3E9919B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4740,7 +4728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4841,34 +4829,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10305</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H4" s="7">
         <v>18</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>13060</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10305</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -4877,13 +4865,13 @@
         <v>23366</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,34 +4880,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15453</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16507</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H5" s="7">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15453</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4928,13 +4916,13 @@
         <v>31960</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,34 +4931,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4468</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3432</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4468</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -4979,13 +4967,13 @@
         <v>7900</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,34 +4982,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>931</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2912</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>931</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5030,13 +5018,13 @@
         <v>3844</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,31 +5036,31 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>727</v>
+        <v>657</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -5081,13 +5069,13 @@
         <v>1384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,25 +5084,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5149,34 +5137,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>154</v>
+      </c>
+      <c r="D10" s="7">
+        <v>106241</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" s="7">
         <v>116</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>84733</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H10" s="7">
-        <v>154</v>
-      </c>
-      <c r="I10" s="7">
-        <v>106241</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>270</v>
@@ -5185,13 +5173,13 @@
         <v>190974</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,34 +5188,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7">
+        <v>90429</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H11" s="7">
         <v>123</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>90517</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="H11" s="7">
-        <v>129</v>
-      </c>
-      <c r="I11" s="7">
-        <v>90429</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
@@ -5236,13 +5224,13 @@
         <v>180946</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,34 +5239,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>59</v>
+      </c>
+      <c r="D12" s="7">
+        <v>41473</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H12" s="7">
         <v>71</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>51459</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="H12" s="7">
-        <v>59</v>
-      </c>
-      <c r="I12" s="7">
-        <v>41473</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -5287,13 +5275,13 @@
         <v>92932</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,34 +5290,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6613</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H13" s="7">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12127</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6613</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5338,13 +5326,13 @@
         <v>18740</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,34 +5341,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5003</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H14" s="7">
         <v>8</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>5855</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5003</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5389,13 +5377,13 @@
         <v>10858</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>435</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,25 +5392,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>359</v>
+      </c>
+      <c r="D15" s="7">
+        <v>249760</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>244690</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>359</v>
-      </c>
-      <c r="I15" s="7">
-        <v>249760</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5451,40 +5439,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7">
+        <v>32605</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H16" s="7">
         <v>42</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>31497</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H16" s="7">
-        <v>45</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32605</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -5493,13 +5481,13 @@
         <v>64103</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,34 +5496,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7">
+        <v>26060</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H17" s="7">
         <v>45</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>31822</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="H17" s="7">
-        <v>36</v>
-      </c>
-      <c r="I17" s="7">
-        <v>26060</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -5544,13 +5532,13 @@
         <v>57882</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,34 +5547,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9259</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11937</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9259</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5595,13 +5583,13 @@
         <v>21197</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>461</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,34 +5598,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5702</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2104</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5702</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -5646,13 +5634,13 @@
         <v>7806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,31 +5652,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>700</v>
+        <v>772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>772</v>
+        <v>700</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5697,13 +5685,13 @@
         <v>1472</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,25 +5700,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5765,34 +5753,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>214</v>
+      </c>
+      <c r="D22" s="7">
+        <v>149151</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H22" s="7">
         <v>176</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>129291</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <v>214</v>
-      </c>
-      <c r="I22" s="7">
-        <v>149151</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>390</v>
@@ -5801,13 +5789,13 @@
         <v>278442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,34 +5804,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>187</v>
+      </c>
+      <c r="D23" s="7">
+        <v>131942</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H23" s="7">
         <v>191</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>138845</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="H23" s="7">
-        <v>187</v>
-      </c>
-      <c r="I23" s="7">
-        <v>131942</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>488</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>378</v>
@@ -5852,13 +5840,13 @@
         <v>270788</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,34 +5855,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7">
+        <v>55201</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H24" s="7">
         <v>93</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>66828</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="H24" s="7">
-        <v>80</v>
-      </c>
-      <c r="I24" s="7">
-        <v>55201</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>173</v>
@@ -5903,13 +5891,13 @@
         <v>122029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,34 +5906,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7">
+        <v>13247</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H25" s="7">
         <v>23</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>17144</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="H25" s="7">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13247</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -5954,13 +5942,13 @@
         <v>30390</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,34 +5957,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6432</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H26" s="7">
         <v>10</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>7282</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6432</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -6005,13 +5993,13 @@
         <v>13713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,25 +6008,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>355972</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>493</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>359389</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>355972</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6067,7 +6055,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
